--- a/data/georgia_census/kakheti/telavi/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/telavi/education_graduates.xlsx
@@ -1850,13 +1850,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CD5CC1-7541-45EC-A0A8-3406CD07DAFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B82DD546-AABD-4128-9F4C-1044A0C1DE56}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4B8E8-A226-494D-BBB6-CD4F356566A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC32FCE-C946-41AF-B3D3-A281190557BC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8E8F6E-4257-48EA-8080-E32AB42306C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3B9BD8-E99D-4BC8-84E6-70E4120B4D56}"/>
 </file>